--- a/doc/matriz.xlsx
+++ b/doc/matriz.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>telltels</t>
   </si>
@@ -180,6 +180,60 @@
   </si>
   <si>
     <t>RPM</t>
+  </si>
+  <si>
+    <t>direccionales</t>
+  </si>
+  <si>
+    <t>fijas</t>
+  </si>
+  <si>
+    <t>derecha</t>
+  </si>
+  <si>
+    <t>izq</t>
+  </si>
+  <si>
+    <t>ambas</t>
+  </si>
+  <si>
+    <t>Hand_Brake</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>condiciones</t>
+  </si>
+  <si>
+    <t>Seat_Belt</t>
+  </si>
+  <si>
+    <t>Abrochado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desabrochado </t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Turn_ON</t>
+  </si>
+  <si>
+    <t>Turn_OFF</t>
+  </si>
+  <si>
+    <t>Door_Status</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Ign_Status</t>
   </si>
 </sst>
 </file>
@@ -195,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +286,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -260,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -268,6 +328,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,28 +612,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -577,14 +658,31 @@
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -592,16 +690,33 @@
         <v>2</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -611,16 +726,35 @@
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -630,16 +764,33 @@
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -649,16 +800,23 @@
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -668,16 +826,21 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="1">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -687,16 +850,23 @@
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -706,16 +876,15 @@
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="1">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="4"/>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -725,16 +894,8 @@
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1">
-        <v>7</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="5">
         <v>7</v>
@@ -742,16 +903,8 @@
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -759,41 +912,47 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="1">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="1">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="1">
-        <v>11</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>90</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -801,16 +960,18 @@
       <c r="C15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="1">
-        <v>12</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>80</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -818,14 +979,18 @@
       <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="1">
-        <v>13</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>70</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -837,14 +1002,16 @@
       <c r="C17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="1">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5">
+        <v>75</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -852,201 +1019,205 @@
       <c r="C18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="1">
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5">
+        <v>130</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20" s="4">
+        <v>6</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>4</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>9</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>11</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>12</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>13</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>14</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
         <v>15</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F19" s="1">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
         <v>16</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="F20" s="1">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
         <v>17</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="F21" s="1">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
         <v>18</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>0</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="1">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
         <v>19</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>1</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>90</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1">
-        <v>80</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>2</v>
-      </c>
-      <c r="B32" s="1">
-        <v>70</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>3</v>
-      </c>
-      <c r="B33" s="1">
-        <v>75</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1">
-        <v>130</v>
-      </c>
-      <c r="D34" s="1">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>5</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
